--- a/excel_tables_dir/filled_table.xlsx
+++ b/excel_tables_dir/filled_table.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cherseroff\PycharmProjects\TGNumberCheckerAppium\excel_tables_dir\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5394AA54-C956-403E-83C8-C5E91641733A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -1567,8 +1573,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1627,17 +1633,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1675,9 +1689,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1709,9 +1723,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1743,9 +1775,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1918,14 +1968,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="I73" sqref="I73"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1957,7 +2021,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1989,7 +2053,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -2021,7 +2085,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -2053,7 +2117,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -2085,7 +2149,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -2117,7 +2181,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -2149,7 +2213,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -2181,7 +2245,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -2213,7 +2277,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -2245,7 +2309,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -2277,7 +2341,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -2309,7 +2373,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -2341,7 +2405,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -2373,7 +2437,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -2405,7 +2469,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -2437,7 +2501,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -2469,7 +2533,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -2501,7 +2565,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -2533,7 +2597,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -2565,7 +2629,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -2597,7 +2661,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -2629,7 +2693,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -2661,7 +2725,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -2693,7 +2757,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -2725,7 +2789,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -2757,7 +2821,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -2789,7 +2853,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -2821,7 +2885,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -2853,7 +2917,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -2885,7 +2949,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -2917,7 +2981,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -2949,7 +3013,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>41</v>
       </c>
@@ -2981,7 +3045,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>42</v>
       </c>
@@ -3013,7 +3077,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>43</v>
       </c>
@@ -3045,7 +3109,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>44</v>
       </c>
@@ -3077,7 +3141,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>45</v>
       </c>
@@ -3109,7 +3173,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>46</v>
       </c>
@@ -3141,7 +3205,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>47</v>
       </c>
@@ -3173,7 +3237,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>48</v>
       </c>
@@ -3205,7 +3269,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>49</v>
       </c>
@@ -3237,7 +3301,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>50</v>
       </c>
@@ -3269,7 +3333,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>51</v>
       </c>
@@ -3301,7 +3365,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>52</v>
       </c>
@@ -3333,7 +3397,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>53</v>
       </c>
@@ -3365,7 +3429,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>54</v>
       </c>
@@ -3397,7 +3461,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>55</v>
       </c>
@@ -3429,7 +3493,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>56</v>
       </c>
@@ -3461,7 +3525,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>57</v>
       </c>
@@ -3493,7 +3557,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>58</v>
       </c>
@@ -3525,7 +3589,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>59</v>
       </c>
@@ -3557,7 +3621,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>60</v>
       </c>
@@ -3589,7 +3653,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>61</v>
       </c>
@@ -3621,7 +3685,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>62</v>
       </c>
@@ -3653,7 +3717,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>63</v>
       </c>
@@ -3685,7 +3749,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>64</v>
       </c>
@@ -3717,7 +3781,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>65</v>
       </c>
@@ -3749,7 +3813,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>66</v>
       </c>
@@ -3781,7 +3845,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>67</v>
       </c>
@@ -3813,7 +3877,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>68</v>
       </c>
@@ -3845,7 +3909,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>69</v>
       </c>
@@ -3877,7 +3941,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>70</v>
       </c>
@@ -3909,7 +3973,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>71</v>
       </c>
@@ -3941,7 +4005,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>72</v>
       </c>
@@ -3973,7 +4037,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>73</v>
       </c>
@@ -4005,7 +4069,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>74</v>
       </c>
@@ -4037,7 +4101,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>75</v>
       </c>
@@ -4069,7 +4133,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>76</v>
       </c>
@@ -4101,7 +4165,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>77</v>
       </c>
@@ -4133,7 +4197,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>78</v>
       </c>
